--- a/TestDatabase.xlsx
+++ b/TestDatabase.xlsx
@@ -9,21 +9,55 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Lod" sheetId="2" r:id="rId1"/>
+    <sheet name="Lod" sheetId="1" r:id="rId1"/>
+    <sheet name="Beersheba" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Birth date</t>
+  </si>
+  <si>
+    <t>Test date</t>
+  </si>
+  <si>
+    <t>Patient Status</t>
+  </si>
+  <si>
+    <t>Quarantined</t>
+  </si>
+  <si>
+    <t>Where quarantined</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
   <si>
     <t>Max</t>
   </si>
   <si>
+    <t>Shapiura</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -33,37 +67,31 @@
     <t>No</t>
   </si>
   <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Birth date</t>
-  </si>
-  <si>
-    <t>Test date</t>
-  </si>
-  <si>
-    <t>Patient Status</t>
-  </si>
-  <si>
-    <t>Quarantined</t>
-  </si>
-  <si>
-    <t>Where quarantined</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Shapiura</t>
+    <t>sfhajsk</t>
+  </si>
+  <si>
+    <t>dshfbjka</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Haim</t>
+  </si>
+  <si>
+    <t>sdfhiajk</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>afjhsk</t>
   </si>
 </sst>
 </file>
@@ -388,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -396,45 +424,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>320620321</v>
@@ -446,16 +474,40 @@
         <v>43889</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>235463765</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8318</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44009</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
@@ -580,4 +632,231 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>452148756</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12274</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44355</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>854635259</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8024</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44021</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TestDatabase.xlsx
+++ b/TestDatabase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="10" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8055" windowWidth="21570" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="14" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8055" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cities Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Dimona" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Giv'at Ze'ev" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Arad" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Test" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="asfgfasf" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Test22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Test23" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -26,14 +31,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt formatCode="m/d/yyyy;@" numFmtId="164"/>
     <numFmt formatCode="0;[Red]0" numFmtId="165"/>
-    <numFmt formatCode="dd\-mm\-yyyy" numFmtId="166"/>
+    <numFmt formatCode="[$-14C09]dd/mm/yyyy;@" numFmtId="166"/>
     <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="[$-14C09]dd/mm/yyyy;@" numFmtId="168"/>
+    <numFmt formatCode="dd\-mm\-yyyy" numFmtId="168"/>
     <numFmt formatCode="yyyy/mm/dd;@" numFmtId="169"/>
     <numFmt formatCode="DD-MM-YYYY" numFmtId="170"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="171"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -323,17 +329,17 @@
     <xf borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2389,10 +2395,10 @@
       <c r="D2" s="25" t="n">
         <v>123456789</v>
       </c>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="37" t="n">
         <v>21099</v>
       </c>
-      <c r="F2" s="36" t="n">
+      <c r="F2" s="37" t="n">
         <v>44158</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -2413,128 +2419,128 @@
     </row>
     <row r="3">
       <c r="D3" s="25" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="36" t="n"/>
-      <c r="F7" s="36" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="36" t="n"/>
-      <c r="F8" s="36" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="36" t="n"/>
-      <c r="F10" s="36" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="36" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="36" t="n"/>
-      <c r="F12" s="36" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="36" t="n"/>
-      <c r="F15" s="36" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="36" t="n"/>
-      <c r="F17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="36" t="n"/>
-      <c r="F18" s="36" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="36" t="n"/>
-      <c r="F23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="36" t="n"/>
-      <c r="F24" s="36" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="36" t="n"/>
-      <c r="F25" s="36" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="36" t="n"/>
-      <c r="F26" s="36" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="36" t="n"/>
-      <c r="F27" s="36" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2549,7 +2555,7 @@
   </sheetPr>
   <dimension ref="D2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2557,133 +2563,133 @@
   <sheetData>
     <row r="2">
       <c r="D2" s="25" t="n"/>
-      <c r="E2" s="36" t="n"/>
-      <c r="F2" s="36" t="n"/>
+      <c r="E2" s="37" t="n"/>
+      <c r="F2" s="37" t="n"/>
     </row>
     <row r="3">
       <c r="D3" s="25" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="36" t="n"/>
-      <c r="F7" s="36" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="36" t="n"/>
-      <c r="F8" s="36" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="36" t="n"/>
-      <c r="F10" s="36" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="36" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="36" t="n"/>
-      <c r="F12" s="36" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="36" t="n"/>
-      <c r="F15" s="36" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="36" t="n"/>
-      <c r="F17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="36" t="n"/>
-      <c r="F18" s="36" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="36" t="n"/>
-      <c r="F23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="36" t="n"/>
-      <c r="F24" s="36" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="36" t="n"/>
-      <c r="F25" s="36" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="36" t="n"/>
-      <c r="F26" s="36" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="36" t="n"/>
-      <c r="F27" s="36" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2775,10 +2781,10 @@
       <c r="D2" s="25" t="n">
         <v>395745526</v>
       </c>
-      <c r="E2" s="39" t="n">
+      <c r="E2" s="37" t="n">
         <v>22547</v>
       </c>
-      <c r="F2" s="39" t="n">
+      <c r="F2" s="37" t="n">
         <v>44065</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -2799,128 +2805,1069 @@
     </row>
     <row r="3">
       <c r="D3" s="25" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="39" t="n"/>
-      <c r="F7" s="39" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="39" t="n"/>
-      <c r="F8" s="39" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="39" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="39" t="n"/>
-      <c r="F10" s="39" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="39" t="n"/>
-      <c r="F11" s="39" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="39" t="n"/>
-      <c r="F12" s="39" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="39" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="39" t="n"/>
-      <c r="F14" s="39" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="39" t="n"/>
-      <c r="F15" s="39" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="39" t="n"/>
-      <c r="F16" s="39" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="39" t="n"/>
-      <c r="F17" s="39" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="39" t="n"/>
-      <c r="F18" s="39" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="39" t="n"/>
-      <c r="F19" s="39" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="39" t="n"/>
-      <c r="F20" s="39" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="39" t="n"/>
-      <c r="F21" s="39" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="39" t="n"/>
-      <c r="F22" s="39" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="39" t="n"/>
-      <c r="F23" s="39" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="39" t="n"/>
-      <c r="F24" s="39" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="39" t="n"/>
-      <c r="F25" s="39" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="39" t="n"/>
-      <c r="F26" s="39" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="39" t="n"/>
-      <c r="F27" s="39" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Patient Status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Quarantined</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Where quarantined</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tesed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>24314412</v>
+      </c>
+      <c r="E2" s="37" t="n">
+        <v>24720</v>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>44510</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="25" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="25" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="25" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="25" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="25" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="25" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="25" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="25" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="25" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="25" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="25" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="25" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="25" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="25" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="25" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="25" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="25" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="25" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="25" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="25" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="25" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="25" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Patient Status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Quarantined</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Where quarantined</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dsadafsa</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dfhgsdgf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>34252353</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Azmaiiasdf</t>
+        </is>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>15987</v>
+      </c>
+      <c r="G2" s="35" t="n">
+        <v>43709</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="25" t="n"/>
+      <c r="F3" s="37" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="25" t="n"/>
+      <c r="F4" s="37" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="25" t="n"/>
+      <c r="F5" s="37" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="25" t="n"/>
+      <c r="F6" s="37" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="25" t="n"/>
+      <c r="F7" s="37" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="25" t="n"/>
+      <c r="F8" s="37" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="25" t="n"/>
+      <c r="F9" s="37" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="25" t="n"/>
+      <c r="F10" s="37" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="25" t="n"/>
+      <c r="F11" s="37" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="25" t="n"/>
+      <c r="F12" s="37" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="25" t="n"/>
+      <c r="F13" s="37" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="25" t="n"/>
+      <c r="F14" s="37" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="25" t="n"/>
+      <c r="F15" s="37" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="25" t="n"/>
+      <c r="F16" s="37" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="25" t="n"/>
+      <c r="F17" s="37" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="25" t="n"/>
+      <c r="F18" s="37" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="25" t="n"/>
+      <c r="F19" s="37" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="25" t="n"/>
+      <c r="F20" s="37" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="25" t="n"/>
+      <c r="F21" s="37" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="25" t="n"/>
+      <c r="F22" s="37" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="25" t="n"/>
+      <c r="F23" s="37" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="25" t="n"/>
+      <c r="F24" s="37" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="25" t="n"/>
+      <c r="F25" s="37" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="25" t="n"/>
+      <c r="F26" s="37" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="25" t="n"/>
+      <c r="F27" s="37" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Patient Status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Quarantined</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Where quarantined</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fafasf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fasfasf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>214415415</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>School Student</t>
+        </is>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>29132</v>
+      </c>
+      <c r="G2" s="35" t="n">
+        <v>44145</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>sdfFDS@gasjn.safda</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="25" t="n"/>
+      <c r="F3" s="37" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="25" t="n"/>
+      <c r="F4" s="37" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="25" t="n"/>
+      <c r="F5" s="37" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="25" t="n"/>
+      <c r="F6" s="37" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="25" t="n"/>
+      <c r="F7" s="37" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="25" t="n"/>
+      <c r="F8" s="37" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="25" t="n"/>
+      <c r="F9" s="37" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="25" t="n"/>
+      <c r="F10" s="37" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="25" t="n"/>
+      <c r="F11" s="37" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="25" t="n"/>
+      <c r="F12" s="37" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="25" t="n"/>
+      <c r="F13" s="37" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="25" t="n"/>
+      <c r="F14" s="37" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="25" t="n"/>
+      <c r="F15" s="37" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="25" t="n"/>
+      <c r="F16" s="37" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="25" t="n"/>
+      <c r="F17" s="37" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="25" t="n"/>
+      <c r="F18" s="37" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="25" t="n"/>
+      <c r="F19" s="37" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="25" t="n"/>
+      <c r="F20" s="37" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="25" t="n"/>
+      <c r="F21" s="37" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="25" t="n"/>
+      <c r="F22" s="37" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="25" t="n"/>
+      <c r="F23" s="37" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="25" t="n"/>
+      <c r="F24" s="37" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="25" t="n"/>
+      <c r="F25" s="37" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="25" t="n"/>
+      <c r="F26" s="37" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="25" t="n"/>
+      <c r="F27" s="37" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Patient Status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Quarantined</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Where quarantined</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fafdfh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dfghfdgh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>41241241</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pensioner</t>
+        </is>
+      </c>
+      <c r="F2" s="38" t="n">
+        <v>7253</v>
+      </c>
+      <c r="G2" s="39" t="n">
+        <v>44371</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ds@sdasd.asff</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" s="25" t="n"/>
+      <c r="F3" s="38" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="25" t="n"/>
+      <c r="F4" s="38" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="25" t="n"/>
+      <c r="F5" s="38" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="25" t="n"/>
+      <c r="F6" s="38" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="25" t="n"/>
+      <c r="F7" s="38" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="25" t="n"/>
+      <c r="F8" s="38" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="25" t="n"/>
+      <c r="F9" s="38" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="25" t="n"/>
+      <c r="F10" s="38" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="25" t="n"/>
+      <c r="F11" s="38" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="25" t="n"/>
+      <c r="F12" s="38" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="25" t="n"/>
+      <c r="F13" s="38" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="25" t="n"/>
+      <c r="F14" s="38" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="25" t="n"/>
+      <c r="F15" s="38" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="25" t="n"/>
+      <c r="F16" s="38" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="25" t="n"/>
+      <c r="F17" s="38" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="25" t="n"/>
+      <c r="F18" s="38" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="25" t="n"/>
+      <c r="F19" s="38" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="25" t="n"/>
+      <c r="F20" s="38" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="25" t="n"/>
+      <c r="F21" s="38" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="25" t="n"/>
+      <c r="F22" s="38" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="25" t="n"/>
+      <c r="F23" s="38" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="25" t="n"/>
+      <c r="F24" s="38" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="25" t="n"/>
+      <c r="F25" s="38" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="25" t="n"/>
+      <c r="F26" s="38" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="25" t="n"/>
+      <c r="F27" s="38" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3029,7 +3976,7 @@
       <c r="E2" s="22" t="n">
         <v>35028</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="F2" s="36" t="n">
         <v>44037</v>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -3070,7 +4017,7 @@
       <c r="E3" s="22" t="n">
         <v>35028</v>
       </c>
-      <c r="F3" s="32" t="n">
+      <c r="F3" s="36" t="n">
         <v>44037</v>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -3111,7 +4058,7 @@
       <c r="E4" s="22" t="n">
         <v>6793</v>
       </c>
-      <c r="F4" s="32" t="n">
+      <c r="F4" s="36" t="n">
         <v>44019</v>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -3152,7 +4099,7 @@
       <c r="E5" s="22" t="n">
         <v>20704</v>
       </c>
-      <c r="F5" s="32" t="n">
+      <c r="F5" s="36" t="n">
         <v>44113</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -3193,7 +4140,7 @@
       <c r="E6" s="22" t="n">
         <v>30681</v>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F6" s="36" t="n">
         <v>43592</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -3234,7 +4181,7 @@
       <c r="E7" s="22" t="n">
         <v>35285</v>
       </c>
-      <c r="F7" s="32" t="n">
+      <c r="F7" s="36" t="n">
         <v>43990</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -3275,7 +4222,7 @@
       <c r="E8" s="22" t="n">
         <v>35285</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="36" t="n">
         <v>43990</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -3316,7 +4263,7 @@
       <c r="E9" s="22" t="n">
         <v>12274</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="30" t="n">
         <v>44355</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -3357,7 +4304,7 @@
       <c r="E10" s="22" t="n">
         <v>8024</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="30" t="n">
         <v>44021</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -4451,10 +5398,10 @@
       <c r="D2" s="25" t="n">
         <v>154215123</v>
       </c>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="37" t="n">
         <v>7953</v>
       </c>
-      <c r="F2" s="36" t="n">
+      <c r="F2" s="37" t="n">
         <v>44168</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -4470,128 +5417,128 @@
     </row>
     <row r="3">
       <c r="D3" s="25" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="36" t="n"/>
-      <c r="F7" s="36" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="36" t="n"/>
-      <c r="F8" s="36" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="36" t="n"/>
-      <c r="F10" s="36" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="36" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="36" t="n"/>
-      <c r="F12" s="36" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="36" t="n"/>
-      <c r="F15" s="36" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="36" t="n"/>
-      <c r="F17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="36" t="n"/>
-      <c r="F18" s="36" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="36" t="n"/>
-      <c r="F23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="36" t="n"/>
-      <c r="F24" s="36" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="36" t="n"/>
-      <c r="F25" s="36" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="36" t="n"/>
-      <c r="F26" s="36" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="36" t="n"/>
-      <c r="F27" s="36" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4692,10 +5639,10 @@
       <c r="D2" s="28" t="n">
         <v>544327551</v>
       </c>
-      <c r="E2" s="37" t="n">
+      <c r="E2" s="32" t="n">
         <v>36020</v>
       </c>
-      <c r="F2" s="38" t="n">
+      <c r="F2" s="35" t="n">
         <v>44037</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -4733,10 +5680,10 @@
       <c r="D3" s="28" t="n">
         <v>320620321</v>
       </c>
-      <c r="E3" s="37" t="n">
+      <c r="E3" s="32" t="n">
         <v>35046</v>
       </c>
-      <c r="F3" s="38" t="n">
+      <c r="F3" s="35" t="n">
         <v>43987</v>
       </c>
       <c r="G3" t="inlineStr">
@@ -4775,10 +5722,10 @@
       <c r="D4" s="28" t="n">
         <v>123456789</v>
       </c>
-      <c r="E4" s="37" t="n">
+      <c r="E4" s="32" t="n">
         <v>35046</v>
       </c>
-      <c r="F4" s="38" t="n">
+      <c r="F4" s="35" t="n">
         <v>43988</v>
       </c>
       <c r="G4" t="inlineStr">
@@ -4816,10 +5763,10 @@
       <c r="D5" s="28" t="n">
         <v>452635847</v>
       </c>
-      <c r="E5" s="37" t="n">
+      <c r="E5" s="32" t="n">
         <v>35046</v>
       </c>
-      <c r="F5" s="38" t="n">
+      <c r="F5" s="35" t="n">
         <v>44384</v>
       </c>
       <c r="G5" t="inlineStr">
@@ -4857,10 +5804,10 @@
       <c r="D6" s="28" t="n">
         <v>852455951</v>
       </c>
-      <c r="E6" s="37" t="n">
+      <c r="E6" s="32" t="n">
         <v>12702</v>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F6" s="35" t="n">
         <v>44366</v>
       </c>
       <c r="G6" t="inlineStr">
@@ -4898,10 +5845,10 @@
       <c r="D7" s="28" t="n">
         <v>235463765</v>
       </c>
-      <c r="E7" s="37" t="n">
+      <c r="E7" s="32" t="n">
         <v>8318</v>
       </c>
-      <c r="F7" s="38" t="n">
+      <c r="F7" s="35" t="n">
         <v>44009</v>
       </c>
       <c r="G7" t="inlineStr">
@@ -4922,39 +5869,39 @@
     </row>
     <row r="8">
       <c r="D8" s="28" t="n"/>
-      <c r="E8" s="37" t="n"/>
+      <c r="E8" s="32" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="28" t="n"/>
-      <c r="E9" s="37" t="n"/>
+      <c r="E9" s="32" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="28" t="n"/>
-      <c r="E10" s="37" t="n"/>
+      <c r="E10" s="32" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="28" t="n"/>
-      <c r="E11" s="37" t="n"/>
+      <c r="E11" s="32" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="28" t="n"/>
-      <c r="E12" s="37" t="n"/>
+      <c r="E12" s="32" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="28" t="n"/>
-      <c r="E13" s="37" t="n"/>
+      <c r="E13" s="32" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="28" t="n"/>
-      <c r="E14" s="37" t="n"/>
+      <c r="E14" s="32" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="28" t="n"/>
-      <c r="E15" s="37" t="n"/>
+      <c r="E15" s="32" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="28" t="n"/>
-      <c r="E16" s="37" t="n"/>
+      <c r="E16" s="32" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="28" t="n"/>
@@ -5106,10 +6053,10 @@
       <c r="D2" s="25" t="n">
         <v>235624857</v>
       </c>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="37" t="n">
         <v>29186</v>
       </c>
-      <c r="F2" s="36" t="n">
+      <c r="F2" s="37" t="n">
         <v>43928</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -5130,128 +6077,128 @@
     </row>
     <row r="3">
       <c r="D3" s="25" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="36" t="n"/>
-      <c r="F7" s="36" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="36" t="n"/>
-      <c r="F8" s="36" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="36" t="n"/>
-      <c r="F10" s="36" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="36" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="36" t="n"/>
-      <c r="F12" s="36" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="36" t="n"/>
-      <c r="F15" s="36" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="36" t="n"/>
-      <c r="F17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="36" t="n"/>
-      <c r="F18" s="36" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="36" t="n"/>
-      <c r="F23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="36" t="n"/>
-      <c r="F24" s="36" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="36" t="n"/>
-      <c r="F25" s="36" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="36" t="n"/>
-      <c r="F26" s="36" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="36" t="n"/>
-      <c r="F27" s="36" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5291,10 +6238,10 @@
       <c r="D2" s="25" t="n">
         <v>458759412</v>
       </c>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="37" t="n">
         <v>12942</v>
       </c>
-      <c r="F2" s="36" t="n">
+      <c r="F2" s="37" t="n">
         <v>43927</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -5315,128 +6262,128 @@
     </row>
     <row r="3">
       <c r="D3" s="25" t="n"/>
-      <c r="E3" s="36" t="n"/>
-      <c r="F3" s="36" t="n"/>
+      <c r="E3" s="37" t="n"/>
+      <c r="F3" s="37" t="n"/>
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="36" t="n"/>
-      <c r="F7" s="36" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="36" t="n"/>
-      <c r="F8" s="36" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="36" t="n"/>
-      <c r="F10" s="36" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="36" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="36" t="n"/>
-      <c r="F12" s="36" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="36" t="n"/>
-      <c r="F15" s="36" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="36" t="n"/>
-      <c r="F17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="36" t="n"/>
-      <c r="F18" s="36" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="36" t="n"/>
-      <c r="F23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="36" t="n"/>
-      <c r="F24" s="36" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="36" t="n"/>
-      <c r="F25" s="36" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="36" t="n"/>
-      <c r="F26" s="36" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="36" t="n"/>
-      <c r="F27" s="36" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5528,10 +6475,10 @@
       <c r="D2" s="25" t="n">
         <v>2532525</v>
       </c>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="37" t="n">
         <v>9379</v>
       </c>
-      <c r="F2" s="36" t="n">
+      <c r="F2" s="37" t="n">
         <v>44141</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -5569,10 +6516,10 @@
       <c r="D3" s="25" t="n">
         <v>453789123</v>
       </c>
-      <c r="E3" s="36" t="n">
+      <c r="E3" s="37" t="n">
         <v>7619</v>
       </c>
-      <c r="F3" s="36" t="n">
+      <c r="F3" s="37" t="n">
         <v>44111</v>
       </c>
       <c r="G3" t="inlineStr">
@@ -5593,123 +6540,123 @@
     </row>
     <row r="4">
       <c r="D4" s="25" t="n"/>
-      <c r="E4" s="36" t="n"/>
-      <c r="F4" s="36" t="n"/>
+      <c r="E4" s="37" t="n"/>
+      <c r="F4" s="37" t="n"/>
     </row>
     <row r="5">
       <c r="D5" s="25" t="n"/>
-      <c r="E5" s="36" t="n"/>
-      <c r="F5" s="36" t="n"/>
+      <c r="E5" s="37" t="n"/>
+      <c r="F5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="D6" s="25" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
+      <c r="E6" s="37" t="n"/>
+      <c r="F6" s="37" t="n"/>
     </row>
     <row r="7">
       <c r="D7" s="25" t="n"/>
-      <c r="E7" s="36" t="n"/>
-      <c r="F7" s="36" t="n"/>
+      <c r="E7" s="37" t="n"/>
+      <c r="F7" s="37" t="n"/>
     </row>
     <row r="8">
       <c r="D8" s="25" t="n"/>
-      <c r="E8" s="36" t="n"/>
-      <c r="F8" s="36" t="n"/>
+      <c r="E8" s="37" t="n"/>
+      <c r="F8" s="37" t="n"/>
     </row>
     <row r="9">
       <c r="D9" s="25" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="D10" s="25" t="n"/>
-      <c r="E10" s="36" t="n"/>
-      <c r="F10" s="36" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="37" t="n"/>
     </row>
     <row r="11">
       <c r="D11" s="25" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="36" t="n"/>
+      <c r="E11" s="37" t="n"/>
+      <c r="F11" s="37" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="25" t="n"/>
-      <c r="E12" s="36" t="n"/>
-      <c r="F12" s="36" t="n"/>
+      <c r="E12" s="37" t="n"/>
+      <c r="F12" s="37" t="n"/>
     </row>
     <row r="13">
       <c r="D13" s="25" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="36" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
     </row>
     <row r="14">
       <c r="D14" s="25" t="n"/>
-      <c r="E14" s="36" t="n"/>
-      <c r="F14" s="36" t="n"/>
+      <c r="E14" s="37" t="n"/>
+      <c r="F14" s="37" t="n"/>
     </row>
     <row r="15">
       <c r="D15" s="25" t="n"/>
-      <c r="E15" s="36" t="n"/>
-      <c r="F15" s="36" t="n"/>
+      <c r="E15" s="37" t="n"/>
+      <c r="F15" s="37" t="n"/>
     </row>
     <row r="16">
       <c r="D16" s="25" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
+      <c r="E16" s="37" t="n"/>
+      <c r="F16" s="37" t="n"/>
     </row>
     <row r="17">
       <c r="D17" s="25" t="n"/>
-      <c r="E17" s="36" t="n"/>
-      <c r="F17" s="36" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="37" t="n"/>
     </row>
     <row r="18">
       <c r="D18" s="25" t="n"/>
-      <c r="E18" s="36" t="n"/>
-      <c r="F18" s="36" t="n"/>
+      <c r="E18" s="37" t="n"/>
+      <c r="F18" s="37" t="n"/>
     </row>
     <row r="19">
       <c r="D19" s="25" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
+      <c r="E19" s="37" t="n"/>
+      <c r="F19" s="37" t="n"/>
     </row>
     <row r="20">
       <c r="D20" s="25" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
+      <c r="E20" s="37" t="n"/>
+      <c r="F20" s="37" t="n"/>
     </row>
     <row r="21">
       <c r="D21" s="25" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
+      <c r="E21" s="37" t="n"/>
+      <c r="F21" s="37" t="n"/>
     </row>
     <row r="22">
       <c r="D22" s="25" t="n"/>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="n"/>
+      <c r="E22" s="37" t="n"/>
+      <c r="F22" s="37" t="n"/>
     </row>
     <row r="23">
       <c r="D23" s="25" t="n"/>
-      <c r="E23" s="36" t="n"/>
-      <c r="F23" s="36" t="n"/>
+      <c r="E23" s="37" t="n"/>
+      <c r="F23" s="37" t="n"/>
     </row>
     <row r="24">
       <c r="D24" s="25" t="n"/>
-      <c r="E24" s="36" t="n"/>
-      <c r="F24" s="36" t="n"/>
+      <c r="E24" s="37" t="n"/>
+      <c r="F24" s="37" t="n"/>
     </row>
     <row r="25">
       <c r="D25" s="25" t="n"/>
-      <c r="E25" s="36" t="n"/>
-      <c r="F25" s="36" t="n"/>
+      <c r="E25" s="37" t="n"/>
+      <c r="F25" s="37" t="n"/>
     </row>
     <row r="26">
       <c r="D26" s="25" t="n"/>
-      <c r="E26" s="36" t="n"/>
-      <c r="F26" s="36" t="n"/>
+      <c r="E26" s="37" t="n"/>
+      <c r="F26" s="37" t="n"/>
     </row>
     <row r="27">
       <c r="D27" s="25" t="n"/>
-      <c r="E27" s="36" t="n"/>
-      <c r="F27" s="36" t="n"/>
+      <c r="E27" s="37" t="n"/>
+      <c r="F27" s="37" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/TestDatabase.xlsx
+++ b/TestDatabase.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sman9\Desktop\Git Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8055" windowWidth="21570" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="18" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lod" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt formatCode="dd\-mm\-yyyy" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="166"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,24 +48,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +394,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="190" zoomScaleNormal="190">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="17.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Patient Status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Quarantined</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Where quarantined</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shapira</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>320620321</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>35046</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>44000</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>maximsh4@ac.sce.ac.il</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gsdfg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dfghfdgh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>56345344</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>College Student</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>6864</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>44199</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>fghfdgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="1" t="n"/>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="1" t="n"/>
+      <c r="F5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="n"/>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="n"/>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="1" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>